--- a/assets/excel/Daftar Unit Kerja.xlsx
+++ b/assets/excel/Daftar Unit Kerja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Daftar Unit Kerja" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
@@ -104,10 +104,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -415,7 +412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -645,7 +642,7 @@
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -654,5 +651,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>